--- a/Team-Data/2011-12/4-26-2011-12.xlsx
+++ b/Team-Data/2011-12/4-26-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,52 +733,52 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
         <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.606</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
         <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J2" t="n">
         <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O2" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.74</v>
       </c>
       <c r="R2" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
         <v>41.2</v>
@@ -720,7 +787,7 @@
         <v>22.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W2" t="n">
         <v>8.1</v>
@@ -729,37 +796,37 @@
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -777,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
@@ -819,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.591</v>
+        <v>0.585</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,46 +933,46 @@
         <v>35.5</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
         <v>7.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U3" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V3" t="n">
         <v>14.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X3" t="n">
         <v>5.5</v>
@@ -914,19 +981,19 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -950,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>24</v>
@@ -959,13 +1026,13 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,16 +1044,16 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1048,7 +1115,7 @@
         <v>33.2</v>
       </c>
       <c r="J4" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.414</v>
@@ -1060,16 +1127,16 @@
         <v>13.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="O4" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
         <v>10.3</v>
@@ -1090,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y4" t="n">
         <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>20.3</v>
@@ -1105,10 +1172,10 @@
         <v>87</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.9</v>
+        <v>-13.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1144,13 +1211,13 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1162,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1171,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA4" t="n">
         <v>10</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
         <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J5" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q5" t="n">
         <v>0.722</v>
@@ -1257,16 +1324,16 @@
         <v>13.9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T5" t="n">
-        <v>46.7</v>
+        <v>46.5</v>
       </c>
       <c r="U5" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>6.9</v>
@@ -1281,16 +1348,16 @@
         <v>17.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1305,13 +1372,13 @@
         <v>16</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1323,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1344,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
         <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>0.318</v>
+        <v>0.323</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L6" t="n">
         <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
         <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.716</v>
+        <v>0.717</v>
       </c>
       <c r="R6" t="n">
         <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T6" t="n">
         <v>42.3</v>
       </c>
       <c r="U6" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
         <v>7.1</v>
@@ -1460,34 +1527,34 @@
         <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-7.2</v>
+        <v>-6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1496,13 +1563,13 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1523,7 +1590,7 @@
         <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV6" t="n">
         <v>26</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.545</v>
+        <v>0.554</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.443</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M7" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O7" t="n">
         <v>15.6</v>
@@ -1642,19 +1709,19 @@
         <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA7" t="n">
         <v>18.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1675,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
         <v>7</v>
@@ -1684,31 +1751,31 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
         <v>27</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1720,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -1758,43 +1825,43 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.576</v>
+        <v>0.569</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
       <c r="O8" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P8" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q8" t="n">
         <v>0.735</v>
@@ -1803,13 +1870,13 @@
         <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U8" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="V8" t="n">
         <v>15.4</v>
@@ -1824,19 +1891,19 @@
         <v>6.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1863,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>24</v>
@@ -1878,7 +1945,7 @@
         <v>25</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>7</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>0.379</v>
+        <v>0.369</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J9" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M9" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="O9" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P9" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q9" t="n">
         <v>0.752</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T9" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U9" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="V9" t="n">
         <v>15.7</v>
@@ -2006,19 +2073,19 @@
         <v>5.3</v>
       </c>
       <c r="Z9" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AA9" t="n">
         <v>19.6</v>
       </c>
-      <c r="AA9" t="n">
-        <v>19.4</v>
-      </c>
       <c r="AB9" t="n">
-        <v>90.90000000000001</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.8</v>
+        <v>-5.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
@@ -2048,28 +2115,28 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
         <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>27</v>
       </c>
       <c r="AU9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2084,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J10" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O10" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P10" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="Q10" t="n">
         <v>0.77</v>
@@ -2167,16 +2234,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T10" t="n">
         <v>39.2</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
@@ -2188,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA10" t="n">
         <v>16.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2245,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>28</v>
@@ -2275,7 +2342,7 @@
         <v>12</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -2304,55 +2371,55 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
         <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>0.515</v>
+        <v>0.508</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
         <v>7.2</v>
       </c>
       <c r="M11" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O11" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q11" t="n">
         <v>0.782</v>
       </c>
       <c r="R11" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U11" t="n">
         <v>21.3</v>
@@ -2373,16 +2440,16 @@
         <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2397,25 +2464,25 @@
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN11" t="n">
         <v>10</v>
       </c>
-      <c r="AN11" t="n">
-        <v>9</v>
-      </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2427,19 +2494,19 @@
         <v>14</v>
       </c>
       <c r="AS11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
@@ -2609,19 +2676,19 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2639,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2788,10 +2855,10 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2809,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ13" t="n">
         <v>25</v>
@@ -2821,7 +2888,7 @@
         <v>14</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>41</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.621</v>
+        <v>0.631</v>
       </c>
       <c r="H14" t="n">
         <v>48.7</v>
       </c>
       <c r="I14" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J14" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.457</v>
@@ -2877,16 +2944,16 @@
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O14" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.756</v>
@@ -2895,13 +2962,13 @@
         <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T14" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U14" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V14" t="n">
         <v>15.1</v>
@@ -2910,31 +2977,31 @@
         <v>5.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
         <v>16.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB14" t="n">
         <v>97.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
@@ -2943,16 +3010,16 @@
         <v>3</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>19</v>
@@ -2964,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
@@ -2982,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -2991,13 +3058,13 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
         <v>1</v>
       </c>
       <c r="BA14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB14" t="n">
         <v>15</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.621</v>
+        <v>0.615</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K15" t="n">
         <v>0.447</v>
@@ -3062,7 +3129,7 @@
         <v>12.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.326</v>
+        <v>0.329</v>
       </c>
       <c r="O15" t="n">
         <v>17.3</v>
@@ -3071,19 +3138,19 @@
         <v>22.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R15" t="n">
         <v>12.6</v>
       </c>
       <c r="S15" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T15" t="n">
         <v>42</v>
       </c>
       <c r="U15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V15" t="n">
         <v>14.5</v>
@@ -3098,37 +3165,37 @@
         <v>5.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
         <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>95</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH15" t="n">
         <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3149,22 +3216,22 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3179,7 +3246,7 @@
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
         <v>46</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.697</v>
+        <v>0.708</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J16" t="n">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.469</v>
+        <v>0.471</v>
       </c>
       <c r="L16" t="n">
         <v>5.6</v>
@@ -3244,7 +3311,7 @@
         <v>15.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O16" t="n">
         <v>18.8</v>
@@ -3259,16 +3326,16 @@
         <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T16" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
         <v>8.9</v>
@@ -3277,28 +3344,28 @@
         <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
         <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>4</v>
@@ -3307,7 +3374,7 @@
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>26</v>
@@ -3322,31 +3389,31 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO16" t="n">
         <v>6</v>
       </c>
       <c r="AP16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3364,10 +3431,10 @@
         <v>8</v>
       </c>
       <c r="BB16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.47</v>
+        <v>0.477</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J17" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L17" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
         <v>16.6</v>
@@ -3435,22 +3502,22 @@
         <v>21.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="R17" t="n">
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U17" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
         <v>8.300000000000001</v>
@@ -3462,19 +3529,19 @@
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA17" t="n">
         <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3495,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
         <v>15</v>
@@ -3504,7 +3571,7 @@
         <v>17</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3513,7 +3580,7 @@
         <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
@@ -3522,13 +3589,13 @@
         <v>20</v>
       </c>
       <c r="AT17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
         <v>7</v>
@@ -3537,13 +3604,13 @@
         <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -3578,55 +3645,55 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
         <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.394</v>
+        <v>0.4</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J18" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K18" t="n">
         <v>0.433</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N18" t="n">
         <v>0.332</v>
       </c>
       <c r="O18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P18" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="U18" t="n">
         <v>19.5</v>
@@ -3653,10 +3720,10 @@
         <v>97.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-2.2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3671,16 +3738,16 @@
         <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3692,25 +3759,25 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>26</v>
@@ -3719,7 +3786,7 @@
         <v>24</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -3760,46 +3827,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J19" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.427</v>
       </c>
       <c r="L19" t="n">
         <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N19" t="n">
         <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
         <v>11.9</v>
@@ -3808,7 +3875,7 @@
         <v>28.5</v>
       </c>
       <c r="T19" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U19" t="n">
         <v>19.9</v>
@@ -3817,43 +3884,43 @@
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.09999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6</v>
+        <v>-5.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
         <v>21</v>
@@ -3877,25 +3944,25 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR19" t="n">
         <v>11</v>
       </c>
       <c r="AS19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="n">
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV19" t="n">
         <v>19</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3907,13 +3974,13 @@
         <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
         <v>21</v>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="n">
-        <v>0.318</v>
+        <v>0.323</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.451</v>
@@ -3969,7 +4036,7 @@
         <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="N20" t="n">
         <v>0.333</v>
@@ -3978,22 +4045,22 @@
         <v>16</v>
       </c>
       <c r="P20" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
         <v>41.1</v>
       </c>
       <c r="U20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
@@ -4008,28 +4075,28 @@
         <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>30</v>
@@ -4056,13 +4123,13 @@
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
@@ -4089,13 +4156,13 @@
         <v>21</v>
       </c>
       <c r="BA20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
         <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.545</v>
+        <v>0.538</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J21" t="n">
         <v>80.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
         <v>7.8</v>
       </c>
       <c r="M21" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P21" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R21" t="n">
         <v>11.3</v>
@@ -4172,46 +4239,46 @@
         <v>30.5</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W21" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
         <v>4.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
         <v>21.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB21" t="n">
         <v>97.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
@@ -4223,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>4</v>
@@ -4238,22 +4305,22 @@
         <v>7</v>
       </c>
       <c r="AP21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR21" t="n">
         <v>15</v>
       </c>
       <c r="AS21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU21" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4265,7 +4332,7 @@
         <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4466,7 @@
         <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>25</v>
@@ -4408,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN22" t="n">
         <v>11</v>
@@ -4426,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4459,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
         <v>37</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4506,7 +4573,7 @@
         <v>34.5</v>
       </c>
       <c r="J23" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.441</v>
@@ -4515,31 +4582,31 @@
         <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="O23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P23" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="n">
         <v>0.66</v>
       </c>
       <c r="R23" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S23" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4548,7 +4615,7 @@
         <v>6.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>4.1</v>
@@ -4557,25 +4624,25 @@
         <v>17.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>10</v>
@@ -4587,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4611,13 +4678,13 @@
         <v>16</v>
       </c>
       <c r="AS23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT23" t="n">
         <v>12</v>
       </c>
-      <c r="AT23" t="n">
-        <v>13</v>
-      </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
         <v>35</v>
       </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>0.53</v>
+        <v>0.538</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J24" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L24" t="n">
         <v>5.3</v>
@@ -4700,7 +4767,7 @@
         <v>14.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O24" t="n">
         <v>13.5</v>
@@ -4709,16 +4776,16 @@
         <v>18.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U24" t="n">
         <v>22</v>
@@ -4736,28 +4803,28 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA24" t="n">
         <v>16.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4787,7 +4854,7 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
         <v>22</v>
@@ -4805,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>18</v>
@@ -4954,22 +5021,22 @@
         <v>6</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4978,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>6</v>
@@ -4996,7 +5063,7 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5058,13 +5125,13 @@
         <v>0.443</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
         <v>20.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O26" t="n">
         <v>17.2</v>
@@ -5076,7 +5143,7 @@
         <v>0.796</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S26" t="n">
         <v>29.5</v>
@@ -5097,7 +5164,7 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z26" t="n">
         <v>19</v>
@@ -5112,7 +5179,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5133,7 +5200,7 @@
         <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5142,7 +5209,7 @@
         <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
@@ -5154,10 +5221,10 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5172,13 +5239,13 @@
         <v>11</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -5216,43 +5283,43 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
         <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.323</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J27" t="n">
         <v>86.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L27" t="n">
         <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="O27" t="n">
         <v>17.1</v>
       </c>
       <c r="P27" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.736</v>
@@ -5261,16 +5328,16 @@
         <v>13.4</v>
       </c>
       <c r="S27" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T27" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V27" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W27" t="n">
         <v>8.5</v>
@@ -5279,37 +5346,37 @@
         <v>4.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5339,37 +5406,37 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -5398,58 +5465,58 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.395</v>
       </c>
       <c r="O28" t="n">
         <v>16.2</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R28" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S28" t="n">
         <v>32.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U28" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V28" t="n">
         <v>13.6</v>
@@ -5464,19 +5531,19 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK28" t="n">
         <v>1</v>
@@ -5515,13 +5582,13 @@
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>9</v>
@@ -5536,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>0.348</v>
+        <v>0.338</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J29" t="n">
-        <v>78.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.44</v>
@@ -5607,28 +5674,28 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="O29" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P29" t="n">
         <v>21.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R29" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U29" t="n">
         <v>20.9</v>
@@ -5646,55 +5713,55 @@
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA29" t="n">
         <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.3</v>
+        <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ29" t="n">
         <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
       </c>
       <c r="AM29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN29" t="n">
         <v>20</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>12</v>
@@ -5703,22 +5770,22 @@
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5733,7 +5800,7 @@
         <v>28</v>
       </c>
       <c r="BC29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -5762,43 +5829,43 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.545</v>
+        <v>0.538</v>
       </c>
       <c r="H30" t="n">
         <v>49</v>
       </c>
       <c r="I30" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J30" t="n">
         <v>83.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L30" t="n">
         <v>4.1</v>
       </c>
       <c r="M30" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="N30" t="n">
         <v>0.323</v>
       </c>
       <c r="O30" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P30" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q30" t="n">
         <v>0.754</v>
@@ -5810,16 +5877,16 @@
         <v>31.1</v>
       </c>
       <c r="T30" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U30" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.2</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>5.8</v>
@@ -5828,7 +5895,7 @@
         <v>5.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA30" t="n">
         <v>20.7</v>
@@ -5840,16 +5907,16 @@
         <v>0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>1</v>
@@ -5861,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5876,7 +5943,7 @@
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
         <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.303</v>
+        <v>0.292</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J31" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L31" t="n">
         <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O31" t="n">
         <v>15.3</v>
@@ -5983,28 +6050,28 @@
         <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y31" t="n">
         <v>4.5</v>
@@ -6016,13 +6083,13 @@
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4.8</v>
+        <v>-5.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6043,7 +6110,7 @@
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6055,10 +6122,10 @@
         <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6070,7 +6137,7 @@
         <v>21</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,7 +6146,7 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6091,10 +6158,10 @@
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-26-2011-12</t>
+          <t>2012-04-26</t>
         </is>
       </c>
     </row>
